--- a/pp_gas_enrichments/NM2_2_DifferentialCentrifugation2_samples1-4_onEt_ch4_Mixture.xlsx
+++ b/pp_gas_enrichments/NM2_2_DifferentialCentrifugation2_samples1-4_onEt_ch4_Mixture.xlsx
@@ -27,6 +27,79 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{33A3D4B5-B3F8-4918-8AA7-486F98197DF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+samples 1-4 were fine, on shaker</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{93527C5A-181F-4B71-9854-089D76C89969}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forgot to pun on a shaker, wasn't shaken for 2 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{8943FDD9-13B7-446D-8FCB-3CBAB162A824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+re-filling some bottles
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C18" authorId="0" shapeId="0" xr:uid="{03D0B9DC-61AA-4364-A10B-08571DA09EDF}">
       <text>
         <r>
@@ -85,6 +158,65 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{1AC6A5E0-94F9-478F-9AD0-3043844A054E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forgot to pun on a shaker, wasn't shaken for 2 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{09F65FBE-5F80-4701-94F1-A3C771E1D91F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+re-filling some bottles
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{2BBB3F0D-E2CB-4DE0-802C-CCC8AA0598D9}">
       <text>
         <r>
@@ -93,7 +225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -102,10 +234,83 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 400 ul in total was taken from each sample for re-cultivation, new atmospheres were supplied</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{9A8991A9-43DE-49E3-A613-97516DF06177}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Samples 1-4 were on a shaker</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{70824834-A905-4507-B5FC-304D8A9D9B53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forgot to pun on a shaker, wasn't shaken for 2 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{994F601E-421C-4EFD-9BCE-E36094C88724}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+re-filling some bottles
+</t>
         </r>
       </text>
     </comment>
@@ -285,19 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +507,21 @@
     <font>
       <sz val="11"/>
       <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -349,26 +556,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,88 +866,88 @@
   <dimension ref="A2:AM24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
+      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13" t="s">
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
     </row>
     <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -745,7 +959,7 @@
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1044,14 +1258,14 @@
         <v>122.2</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q8" si="1">P6*A6/B6</f>
+        <f t="shared" ref="Q6:Q10" si="1">P6*A6/B6</f>
         <v>518.27975231147684</v>
       </c>
       <c r="R6" s="3">
         <v>126.88</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S8" si="2">R6*A6/B6</f>
+        <f t="shared" ref="S6:S10" si="2">R6*A6/B6</f>
         <v>538.12876410212914</v>
       </c>
       <c r="T6" s="3">
@@ -1114,189 +1328,176 @@
         <v>103.7</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" ref="AK6:AK8" si="9">AJ6*A6/B6</f>
+        <f t="shared" ref="AK6:AK11" si="9">AJ6*A6/B6</f>
         <v>439.81677835270165</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>118.5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>43014</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>130.36000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <f>F7*A7/B7</f>
         <v>550.04219409282712</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>132.88999999999999</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <f>H7*A7/B7</f>
         <v>560.71729957805906</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>142.63999999999999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f>J7*A7/B7</f>
         <v>601.85654008438814</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>130.5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <f>L7*A6/B6</f>
         <v>553.48205954703542</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AK7" s="3"/>
-    </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>500</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>118.5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>43016</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="4">
         <f>C8-$C$7</f>
         <v>2</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E7:E8" si="10">C8-$C$24</f>
+        <f t="shared" ref="E8:E10" si="10">C8-$C$24</f>
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>121.7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <f>F8*A8/B8</f>
         <v>513.50210970464138</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>111.48</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <f>H8*A8/B8</f>
         <v>470.37974683544303</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>138.13</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f>J8*A8/B8</f>
         <v>582.82700421940933</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>128</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <f>L8*A7/B7</f>
         <v>540.08438818565401</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>129.65</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
         <v>547.04641350210966</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <v>124.5</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="1"/>
         <v>525.31645569620252</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <v>124.7</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="2"/>
         <v>526.16033755274259</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="3">
         <v>127.9</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ref="U7:U8" si="11">T8*A8/B8</f>
+        <f t="shared" ref="U8:U10" si="11">T8*A8/B8</f>
         <v>539.66244725738397</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="3">
         <v>2.0699999999999998</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" si="3"/>
         <v>8.7341772151898738</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="3">
         <v>1.97</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="4"/>
         <v>8.3122362869198305</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="3">
         <v>1.89</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="5"/>
         <v>7.9746835443037973</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="3">
         <v>1.8</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="6"/>
         <v>7.5949367088607591</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="3">
         <v>76.760000000000005</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" ref="AE7:AE8" si="12">AD8*A8/B8</f>
+        <f t="shared" ref="AE8:AE11" si="12">AD8*A8/B8</f>
         <v>323.88185654008441</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="3">
         <v>43.07</v>
       </c>
       <c r="AG8" s="3">
         <f t="shared" si="7"/>
         <v>181.72995780590716</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="3">
         <v>47.15</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="8"/>
         <v>198.94514767932489</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="3">
         <v>42.29</v>
       </c>
       <c r="AK8" s="3">
@@ -1304,14 +1505,243 @@
         <v>178.43881856540085</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>500</v>
+      </c>
+      <c r="B9" s="3">
+        <v>114.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43018</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9-$C$7</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>119.09</v>
+      </c>
+      <c r="G9" s="3">
+        <f>F9*A9/B9</f>
+        <v>520.49825174825173</v>
+      </c>
+      <c r="H9" s="3">
+        <v>123.12</v>
+      </c>
+      <c r="I9" s="3">
+        <f>H9*A9/B9</f>
+        <v>538.11188811188811</v>
+      </c>
+      <c r="J9" s="3">
+        <v>133.86000000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <f>J9*A9/B9</f>
+        <v>585.05244755244757</v>
+      </c>
+      <c r="L9" s="3">
+        <v>121.54</v>
+      </c>
+      <c r="M9" s="3">
+        <f>L9*A8/B8</f>
+        <v>512.82700421940933</v>
+      </c>
+      <c r="N9" s="3">
+        <v>126.8</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9*A9/B9</f>
+        <v>554.19580419580416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43035</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="G10" s="3">
+        <f>F10*A10/B10</f>
+        <v>41.958041958041953</v>
+      </c>
+      <c r="H10" s="1">
+        <v>103.12</v>
+      </c>
+      <c r="I10" s="1">
+        <f>H10*A10/B10</f>
+        <v>450.69930069930069</v>
+      </c>
+      <c r="J10" s="1">
+        <v>113.98</v>
+      </c>
+      <c r="K10" s="1">
+        <f>J10*A10/B10</f>
+        <v>498.16433566433562</v>
+      </c>
+      <c r="L10" s="1">
+        <v>111.14</v>
+      </c>
+      <c r="M10" s="3">
+        <f>L10*A10/B10</f>
+        <v>485.75174825174821</v>
+      </c>
+      <c r="N10" s="1">
+        <v>121.19</v>
+      </c>
+      <c r="O10" s="3">
+        <f>N10*A10/B10</f>
+        <v>529.67657342657344</v>
+      </c>
+      <c r="P10" s="1">
+        <v>120.17</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>525.21853146853141</v>
+      </c>
+      <c r="R10" s="1">
+        <v>122.2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="2"/>
+        <v>534.09090909090901</v>
+      </c>
+      <c r="T10" s="1">
+        <v>124.09</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="11"/>
+        <v>542.35139860139861</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="12"/>
+        <v>12.194055944055943</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>AF10*A10/B10</f>
+        <v>5.5944055944055942</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <f>AH10*A10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="A11" s="1">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43035</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <f>F11*A11/B11</f>
+        <v>52.447552447552447</v>
+      </c>
+      <c r="H11" s="3">
+        <v>102.18</v>
+      </c>
+      <c r="I11" s="3">
+        <f>H11*A11/B11</f>
+        <v>446.59090909090907</v>
+      </c>
+      <c r="J11" s="3">
+        <v>111.28</v>
+      </c>
+      <c r="K11" s="3">
+        <f>J11*A11/B11</f>
+        <v>486.36363636363632</v>
+      </c>
+      <c r="L11" s="3">
+        <v>111.59</v>
+      </c>
+      <c r="M11" s="3">
+        <f>L11*A11/B11</f>
+        <v>487.71853146853147</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>161.74</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="12"/>
+        <v>706.90559440559434</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>147.85</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>AF11*A11/B11</f>
+        <v>646.19755244755243</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>152.16</v>
+      </c>
+      <c r="AI11" s="1">
+        <f>AH11*A11/B11</f>
+        <v>665.03496503496501</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>154.75</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="9"/>
+        <v>676.35489510489504</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
@@ -1649,10 +2079,10 @@
       <c r="B24" s="6">
         <v>1936</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>43011</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="6">
         <f t="shared" si="13"/>
         <v>41</v>
@@ -1709,712 +2139,908 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AQ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomRight" activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+    <row r="2" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16" t="s">
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-    </row>
-    <row r="3" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+    </row>
+    <row r="3" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="14" t="s">
+      <c r="T3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="14" t="s">
+      <c r="V3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="14" t="s">
+      <c r="X3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="14" t="s">
+      <c r="Z3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AB3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AD3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>43011</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>C4-$C$21</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>43012</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>C5-$C$21</f>
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>27.68</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>22.6</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>21.8</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>22.37</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20">
+    <row r="6" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>43013</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <f>C6-$C$21</f>
         <v>2</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="3">
         <v>34.159999999999997</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="3">
         <v>0.09</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="3">
         <v>35.4</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="3">
         <v>0.1027</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="3">
         <v>38.01</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="3">
         <v>0.11</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="3">
         <v>0.1</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="3">
         <v>38.340000000000003</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="3">
         <v>0.11</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="3">
         <v>29.8</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="3">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="3">
         <v>28.92</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="3">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="3">
         <v>28.96</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="3">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="3">
         <v>33</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="3">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="3">
         <v>33.89</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="3">
         <v>6.83E-2</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ6" s="3">
         <v>33.049999999999997</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AK6" s="3">
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20">
+    <row r="7" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
         <v>43014</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="19">
-        <f t="shared" ref="E7:E8" si="0">C7-$C$21</f>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E9" si="0">C7-$C$21</f>
         <v>3</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="3">
         <v>21.7</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20">
+    <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
         <v>43016</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="4">
         <f>C8-$C$7</f>
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="3">
         <v>30.4</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="3">
         <v>0.06</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="3">
         <v>30.5</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="3">
         <v>0.06</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="3">
         <v>30.29</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="3">
         <v>0.06</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="3">
         <v>29.7</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="3">
         <v>32.9</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="3">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="3">
         <v>34.299999999999997</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="3">
         <v>0.06</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="3">
         <v>35.9</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="3">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="3">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="3">
         <v>31.8</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="3">
         <v>31.25</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="3">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="3">
         <v>29.8</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="3">
         <v>35.06</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="3">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="3">
         <v>37.700000000000003</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="3">
         <v>7.51E-2</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="3">
         <v>35.200000000000003</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ8" s="3">
         <v>39</v>
       </c>
-      <c r="AK8" s="14">
+      <c r="AK8" s="3">
         <v>7.7799999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+    <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>43018</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9-$C$7</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>46.95</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>39.29</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>38.69</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>45.26</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>43035</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F10" s="13">
+        <v>51.1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>35.9</v>
+      </c>
+      <c r="I10" s="13">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>31.9</v>
+      </c>
+      <c r="K10" s="13">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="L10" s="13">
+        <v>49.61</v>
+      </c>
+      <c r="M10" s="13">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <v>40.1</v>
+      </c>
+      <c r="O10" s="13">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>38.6</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>42.36</v>
+      </c>
+      <c r="S10" s="13">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>41.29</v>
+      </c>
+      <c r="U10" s="13">
+        <v>5.62E-2</v>
+      </c>
+      <c r="V10" s="13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="W10" s="13">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="X10" s="13">
+        <v>35.17</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>37.5</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>33.76</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>44</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>42.4</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="18">
+        <v>43035</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E11" s="14">
+        <f>C11-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43.5</v>
+      </c>
+      <c r="G11" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="I11" s="13">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>32.26</v>
+      </c>
+      <c r="K11" s="13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L11" s="13">
+        <v>31.45</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>40.49</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>40.54</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>42970</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>0</v>
       </c>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>42975</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <f>C15-C14</f>
         <v>5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>28.4</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>0.1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>28.8</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>0.1</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>19.100000000000001</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <v>21.02</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>42979</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f>C16-C14</f>
         <v>9</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>37</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>0.1114</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>36.770000000000003</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <v>0.1106</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>24.5</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>25.7</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="15">
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>42986</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f>C17-C14</f>
         <v>16</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>45.28</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <v>0.13769999999999999</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>41.68</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="15">
         <v>0.1268</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>33.299999999999997</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <v>0.10100000000000001</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <v>24.3</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
         <v>314.65899999999999</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>43004</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f>C18-$C$14</f>
         <v>34</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>86.07</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>0.27360000000000001</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>67.03</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>0.21</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>49.37</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>0.156</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <v>33.69</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="15">
         <v>0.107</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>43006</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <f>C19-$C$14</f>
         <v>36</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>87.85</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>0.29499999999999998</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>74</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>0.249</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>58.4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <v>0.19</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <v>42.79</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>1</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
         <v>312.60000000000002</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>43007</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <f>C20-$C$14</f>
         <v>37</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>84.2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <v>72.459999999999994</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="15">
         <v>0.23180000000000001</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="15">
         <v>49.59</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <v>0.15870000000000001</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <v>46.48</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="15">
         <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>43011</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7">
+        <v>43035</v>
+      </c>
+      <c r="D22" s="10">
+        <f>C22-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <f>C22-$C$4</f>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2440,6 +3066,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2448,543 +3075,532 @@
   <dimension ref="A2:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="13" t="s">
+    <row r="2" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13" t="s">
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13" t="s">
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+    </row>
+    <row r="3" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="T3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="V3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="X3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AB3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AD3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AF3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AH3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AJ3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>500</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="24">
         <v>237.9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="25">
         <v>43011</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="24">
         <f>C4-$C$25</f>
         <v>0</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="24">
         <v>264.3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="24">
         <f>N4*A4/B4</f>
         <v>555.48549810844895</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="24">
         <v>261.7</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="24">
         <f>P4*A4/B4</f>
         <v>550.02101723413193</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="24">
         <v>282.57</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="24">
         <f>R4*A4/B4</f>
         <v>593.88398486759138</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="24">
         <v>264.7</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="24">
         <f>T4*A4/B4</f>
         <v>556.3261874737284</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="24">
         <v>249</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="24">
         <f>V4*A4/B4</f>
         <v>523.32912988650696</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="24">
         <v>249.5</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="24">
         <f>X4*A4/B4</f>
         <v>524.3799915931063</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="24">
         <v>273.19</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="24">
         <f>Z4*A4/B4</f>
         <v>574.16981925178641</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="24">
         <v>257.64</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="24">
         <f>AB4*A4/B4</f>
         <v>541.48802017654475</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="24">
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="24">
         <v>0</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="24">
         <v>0</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="24">
         <v>0</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="24">
         <v>0</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>500</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="24">
         <v>237.9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="25">
         <v>43012</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="24">
         <f>C5-$C$25</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>500</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="24">
         <v>241.7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="25">
         <v>43013</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="24">
         <f>C6-$C$25</f>
         <v>2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="24">
         <v>250.35</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" ref="O6:O7" si="0">N6*A6/B6</f>
+      <c r="O6" s="24">
+        <f t="shared" ref="O6" si="0">N6*A6/B6</f>
         <v>517.89408357467937</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="24">
         <v>243.56</v>
       </c>
-      <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q8" si="1">P6*A6/B6</f>
+      <c r="Q6" s="24">
+        <f t="shared" ref="Q6:Q10" si="1">P6*A6/B6</f>
         <v>503.84774513860162</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="24">
         <v>257.58999999999997</v>
       </c>
-      <c r="S6" s="3">
-        <f t="shared" ref="S6:S8" si="2">R6*A6/B6</f>
+      <c r="S6" s="24">
+        <f t="shared" ref="S6:S10" si="2">R6*A6/B6</f>
         <v>532.87132809267689</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="24">
         <v>236.07</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" ref="U6:U8" si="3">T6*A6/B6</f>
+      <c r="U6" s="24">
+        <f t="shared" ref="U6:U10" si="3">T6*A6/B6</f>
         <v>488.35333057509314</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="24">
         <v>236.31</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="24">
         <f>V6*A6/B6</f>
         <v>488.84981381878362</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="24">
         <v>232.93</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" ref="Y6:Y8" si="4">X6*A6/B6</f>
+      <c r="Y6" s="24">
+        <f t="shared" ref="Y6:Y10" si="4">X6*A6/B6</f>
         <v>481.85767480347539</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="24">
         <v>228.62</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="24">
         <f t="shared" ref="AA6:AA8" si="5">Z6*A6/B6</f>
         <v>472.94166321886638</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="24">
         <v>237.43</v>
       </c>
-      <c r="AC6" s="3">
-        <f t="shared" ref="AC6:AC8" si="6">AB6*A6/B6</f>
+      <c r="AC6" s="24">
+        <f t="shared" ref="AC6:AC10" si="6">AB6*A6/B6</f>
         <v>491.16673562267277</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="24">
         <v>0</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="24">
         <v>0</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="24">
         <v>0</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="24">
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="24">
         <v>0</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>236.8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="2">
         <v>43014</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>41.77</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <f>F7*A7/B7</f>
         <v>88.196790540540533</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>40.56</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <f>H7*A7/B7</f>
         <v>85.641891891891888</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>30.89</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <f>J7*A7/B7</f>
         <v>65.223817567567565</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>60.5</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <f>L7*A7/B7</f>
         <v>127.74493243243242</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="AA7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>500</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>236.8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>43016</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f>C8-$C$7</f>
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" ref="E7:E8" si="7">C8-$C$25</f>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8:E9" si="7">C8-$C$25</f>
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <f>F8*A8/B8</f>
         <v>70.101351351351354</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>32.270000000000003</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <f>H8*A8/B8</f>
         <v>68.137668918918919</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>27.57</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f>J8*A8/B8</f>
         <v>58.213682432432428</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>53.14</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <f>L8*A8/B8</f>
         <v>112.20439189189189</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>258.01</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <f>N8*A8/B8</f>
         <v>544.78462837837833</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <v>240.16</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="1"/>
         <v>507.09459459459458</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <v>244.15</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="2"/>
         <v>515.51942567567562</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="3">
         <v>239.3</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="3"/>
         <v>505.2787162162162</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="3">
         <v>233.06</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ref="W7:W8" si="8">V8*A8/B8</f>
+        <f t="shared" ref="W8:W10" si="8">V8*A8/B8</f>
         <v>492.10304054054052</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="3">
         <v>230</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="4"/>
         <v>485.64189189189187</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="3">
         <v>221.87</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="5"/>
         <v>468.47550675675672</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="3">
         <v>236.64</v>
       </c>
       <c r="AC8" s="3">
@@ -2992,138 +3608,327 @@
         <v>499.66216216216213</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>500</v>
+      </c>
+      <c r="B9" s="3">
+        <v>230.54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43018</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-$C$7</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30.15</v>
+      </c>
+      <c r="G9" s="3">
+        <f>F9*A9/B9</f>
+        <v>65.389954020994196</v>
+      </c>
+      <c r="H9" s="3">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="I9" s="3">
+        <f>H9*A9/B9</f>
+        <v>74.000173505682312</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="K9" s="3">
+        <f>J9*A9/B9</f>
+        <v>52.485468899106451</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="M9" s="3">
+        <f>L9*A9/B9</f>
+        <v>109.74234406176802</v>
+      </c>
+      <c r="N9" s="3">
+        <v>252</v>
+      </c>
+      <c r="O9" s="3">
+        <f>N9*A9/B9</f>
+        <v>546.54289927995148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>232.11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43035</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.12</v>
+      </c>
+      <c r="I10" s="3">
+        <f>H10*A10/B10</f>
+        <v>39.033217009176681</v>
+      </c>
+      <c r="J10" s="1">
+        <v>13.12</v>
+      </c>
+      <c r="K10" s="3">
+        <f>J10*A10/B10</f>
+        <v>28.262461763818877</v>
+      </c>
+      <c r="L10" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="M10" s="1">
+        <f>L10*A10/B10</f>
+        <v>74.102796088061694</v>
+      </c>
+      <c r="N10" s="1">
+        <v>230.52</v>
+      </c>
+      <c r="O10" s="3">
+        <f>N10*A10/B10</f>
+        <v>496.57489983197621</v>
+      </c>
+      <c r="P10" s="1">
+        <v>232.3</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>500.40928869932355</v>
+      </c>
+      <c r="R10" s="1">
+        <v>234.14</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="2"/>
+        <v>504.37292662961522</v>
+      </c>
+      <c r="T10" s="1">
+        <v>229.27</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="3"/>
+        <v>493.88221102063676</v>
+      </c>
+      <c r="V10" s="1">
+        <v>230.71</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="8"/>
+        <v>496.98418853129976</v>
+      </c>
+      <c r="X10" s="1">
+        <v>224.9</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="4"/>
+        <v>484.468570936194</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>226.1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>477.39</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>230.73</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="6"/>
+        <v>497.02727155228121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1">
+        <v>232.11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43035</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11-$C$7</f>
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11-$C$4</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>245.57</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11*A11/B11</f>
+        <v>528.99487312050314</v>
+      </c>
+      <c r="H11" s="1">
+        <v>266.08</v>
+      </c>
+      <c r="I11" s="1">
+        <f>H11*A11/B11</f>
+        <v>573.17651113696093</v>
+      </c>
+      <c r="J11" s="1">
+        <v>258.16000000000003</v>
+      </c>
+      <c r="K11" s="1">
+        <f>J11*A11/B11</f>
+        <v>556.11563482831423</v>
+      </c>
+      <c r="L11" s="1">
+        <v>285.07</v>
+      </c>
+      <c r="M11" s="1">
+        <f>L11*A11/B11</f>
+        <v>614.08383955882982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
+      <c r="C16" s="25">
         <v>42970</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7">
+      <c r="C17" s="25">
         <v>42975</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="24">
         <f>C17-C16</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7">
+      <c r="C18" s="25">
         <v>42979</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="24">
         <f>C18-C16</f>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7">
+      <c r="C19" s="25">
         <v>42986</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="24">
         <f>C19-C16</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="7">
+      <c r="C20" s="25">
         <v>43004</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="24">
         <f t="shared" ref="E20:E25" si="9">C20-$C$16</f>
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7">
+      <c r="C21" s="25">
         <v>43004</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="27">
         <v>0.55972222222222201</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="24">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="7">
+      <c r="C22" s="25">
         <v>43006</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="27">
         <v>0.55972222222222223</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="24">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
+      <c r="C23" s="25">
         <v>43007</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="27">
         <v>0.55972222222222223</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="24">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="7">
+      <c r="C24" s="25">
         <v>43008</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="27">
         <v>0.35138888888888892</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="24">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="9">
+    <row r="25" spans="3:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="26">
         <v>43011</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="28">
         <v>0.66527777777777775</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="22">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
